--- a/Decoupe.xlsx
+++ b/Decoupe.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>m²</t>
   </si>
@@ -37,69 +36,6 @@
   </si>
   <si>
     <t>Aimant de porte</t>
-  </si>
-  <si>
-    <t>ECHO: text = " Bas"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "290x750x5"</t>
-  </si>
-  <si>
-    <t>ECHO: text = " Fond"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "5x750x490"</t>
-  </si>
-  <si>
-    <t>ECHO: text = " Haut"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "300x750x5"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "60x620x5"</t>
-  </si>
-  <si>
-    <t>ECHO: text = " Laterale"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "262x5x490"</t>
-  </si>
-  <si>
-    <t>ECHO: text = " renfort laterale"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "5x60x490"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "10x65x490"</t>
-  </si>
-  <si>
-    <t>ECHO: text = " Portes"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "492x750x10"</t>
-  </si>
-  <si>
-    <t>ECHO: text = " Pieds"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "60x750x5"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "Portes Laterales"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "264x5x490"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "Portes Frontales"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "5x375x487"</t>
-  </si>
-  <si>
-    <t>ECHO: text = "5x65x487"</t>
   </si>
 </sst>
 </file>
@@ -450,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,7 +420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>290</v>
       </c>
@@ -512,7 +448,7 @@
         <v>31850</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>490</v>
       </c>
@@ -540,7 +476,7 @@
         <v>31850</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -568,7 +504,7 @@
         <v>369000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>60</v>
       </c>
@@ -582,11 +518,8 @@
         <f t="shared" si="0"/>
         <v>37200</v>
       </c>
-      <c r="M5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>262</v>
       </c>
@@ -600,11 +533,8 @@
         <f t="shared" si="0"/>
         <v>128380</v>
       </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>262</v>
       </c>
@@ -618,11 +548,8 @@
         <f t="shared" si="0"/>
         <v>128380</v>
       </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -636,11 +563,8 @@
         <f t="shared" si="0"/>
         <v>29400</v>
       </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -654,11 +578,8 @@
         <f t="shared" si="0"/>
         <v>29400</v>
       </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
@@ -672,11 +593,8 @@
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -690,11 +608,8 @@
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>264</v>
       </c>
@@ -708,11 +623,8 @@
         <f t="shared" si="0"/>
         <v>129360</v>
       </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>264</v>
       </c>
@@ -726,11 +638,8 @@
         <f t="shared" si="0"/>
         <v>129360</v>
       </c>
-      <c r="M13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>375</v>
       </c>
@@ -744,11 +653,8 @@
         <f t="shared" si="0"/>
         <v>182625</v>
       </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>375</v>
       </c>
@@ -762,11 +668,8 @@
         <f t="shared" si="0"/>
         <v>182625</v>
       </c>
-      <c r="M15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
@@ -781,7 +684,7 @@
         <v>31655</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65</v>
       </c>
@@ -796,12 +699,7 @@
         <v>31655</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <f>SUM(D2:D18) / (1000*1000)</f>
         <v>1.94004</v>
@@ -816,104 +714,36 @@
       <c r="J19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>48</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="M23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>96</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="M27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -935,16 +765,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>